--- a/ValueSet-vs-enrollment-type.xlsx
+++ b/ValueSet-vs-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T12:16:03+00:00</t>
+    <t>2023-02-13T12:20:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -121,13 +121,13 @@
     <t>185387006</t>
   </si>
   <si>
-    <t>New client</t>
+    <t>New patient consultation</t>
   </si>
   <si>
     <t>309037001</t>
   </si>
   <si>
-    <t>Transfer in</t>
+    <t>Transfer status</t>
   </si>
   <si>
     <t>http://snomed.info/sct</t>

--- a/ValueSet-vs-enrollment-type.xlsx
+++ b/ValueSet-vs-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T12:20:57+00:00</t>
+    <t>2023-02-13T12:39:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-enrollment-type.xlsx
+++ b/ValueSet-vs-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T15:22:00+00:00</t>
+    <t>2023-02-13T19:08:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -121,13 +121,13 @@
     <t>185387006</t>
   </si>
   <si>
-    <t>New patient consultation</t>
+    <t>New patient consultation (procedure)</t>
   </si>
   <si>
     <t>309037001</t>
   </si>
   <si>
-    <t>Transfer status</t>
+    <t>Transfer status (finding)</t>
   </si>
   <si>
     <t>http://snomed.info/sct</t>

--- a/ValueSet-vs-enrollment-type.xlsx
+++ b/ValueSet-vs-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T19:08:35+00:00</t>
+    <t>2023-02-13T19:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-enrollment-type.xlsx
+++ b/ValueSet-vs-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T19:10:14+00:00</t>
+    <t>2023-02-13T19:11:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-enrollment-type.xlsx
+++ b/ValueSet-vs-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T06:22:43+00:00</t>
+    <t>2023-02-14T07:22:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-enrollment-type.xlsx
+++ b/ValueSet-vs-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T07:22:19+00:00</t>
+    <t>2023-02-14T08:50:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
